--- a/SuppXLS/Scen_Refinery.xlsx
+++ b/SuppXLS/Scen_Refinery.xlsx
@@ -1,22 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda_models\DemoS_012_Vonline\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA_Release\Demo_S012_Vonline\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C256C43-C96D-43CB-9029-493A6DA67691}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67887978-BBBA-410F-9DFF-AD3D055B8337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BY Data" sheetId="15" r:id="rId1"/>
     <sheet name="Refinery" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -72,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="37">
   <si>
     <t>Pset_CI</t>
   </si>
@@ -180,6 +189,9 @@
   </si>
   <si>
     <t>BASE</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -971,10 +983,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:J4"/>
+  <dimension ref="B2:T12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -982,7 +994,7 @@
     <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>31</v>
       </c>
@@ -995,7 +1007,7 @@
       <c r="I2" s="18"/>
       <c r="J2" s="11"/>
     </row>
-    <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
         <v>32</v>
       </c>
@@ -1024,7 +1036,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
         <v>34</v>
       </c>
@@ -1047,6 +1059,11 @@
       </c>
       <c r="J4" s="13" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="T12" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/SuppXLS/Scen_Refinery.xlsx
+++ b/SuppXLS/Scen_Refinery.xlsx
@@ -1,31 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA_Release\Demo_S012_Vonline\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67887978-BBBA-410F-9DFF-AD3D055B8337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12EDDC6-2683-40A7-8276-9F31FB9B1DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BY Data" sheetId="15" r:id="rId1"/>
     <sheet name="Refinery" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -370,7 +361,7 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -386,13 +377,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="3" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -998,20 +986,19 @@
       <c r="B2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="11"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
     </row>
     <row r="3" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="16" t="s">
         <v>33</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -1037,27 +1024,25 @@
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
+      <c r="B4" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11" t="s">
+      <c r="F4" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4">
         <v>2005</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="18">
         <v>15667.369000000001</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="18">
         <v>15667.369000000001</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="12" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1097,8 +1082,8 @@
     <col min="14" max="14" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="17"/>
+    <col min="19" max="19" width="23.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:254" x14ac:dyDescent="0.25">
@@ -1118,10 +1103,10 @@
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
-      <c r="S2" s="23" t="s">
+      <c r="S2" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="T2" s="23"/>
+      <c r="T2" s="20"/>
     </row>
     <row r="3" spans="1:254" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
@@ -1172,10 +1157,10 @@
       <c r="Q3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="16" t="s">
+      <c r="S3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="16" t="s">
+      <c r="T3" s="13" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1198,10 +1183,10 @@
       <c r="I4" s="10">
         <v>0.5</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="P4" s="13" t="s">
+      <c r="P4" s="12" t="s">
         <v>21</v>
       </c>
       <c r="IT4" s="10"/>
@@ -1225,10 +1210,10 @@
       <c r="I5" s="10">
         <v>0.5</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="13" t="s">
+      <c r="P5" s="12" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1251,10 +1236,10 @@
       <c r="I6" s="10">
         <v>0.5</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="P6" s="14" t="s">
+      <c r="P6" s="12" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1277,10 +1262,10 @@
       <c r="I7" s="10">
         <v>0.5</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="P7" s="14" t="s">
+      <c r="P7" s="12" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1303,10 +1288,10 @@
       <c r="I8" s="10">
         <v>0.5</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="K8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="P8" s="14" t="s">
+      <c r="P8" s="12" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1329,10 +1314,10 @@
       <c r="I9" s="10">
         <v>0.5</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="P9" s="14" t="s">
+      <c r="P9" s="12" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1365,7 +1350,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
-      <c r="P10" s="15" t="s">
+      <c r="P10" s="7" t="s">
         <v>27</v>
       </c>
       <c r="Q10" s="9"/>
@@ -1380,21 +1365,21 @@
       <c r="E11">
         <v>2020</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="19">
         <f>'BY Data'!H4*(1+Refinery!S11)</f>
         <v>19584.21125</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I11" s="19">
         <f>'BY Data'!I4*(1+Refinery!T11)</f>
         <v>20367.579700000002</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="K11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="S11" s="12">
+      <c r="S11" s="11">
         <v>0.25</v>
       </c>
-      <c r="T11" s="12">
+      <c r="T11" s="11">
         <v>0.3</v>
       </c>
     </row>
